--- a/MercedesBenz, bug-report.xlsx
+++ b/MercedesBenz, bug-report.xlsx
@@ -28,7 +28,7 @@
     <t>Фактический результат</t>
   </si>
   <si>
-    <t>Приоритет</t>
+    <t xml:space="preserve">Серьёзность </t>
   </si>
   <si>
     <t xml:space="preserve">Окружение </t>
@@ -1679,7 +1679,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1998,7 +1998,7 @@
     <col customWidth="1" min="3" max="3" width="31.5"/>
     <col customWidth="1" min="4" max="4" width="22.0"/>
     <col customWidth="1" min="5" max="5" width="22.88"/>
-    <col customWidth="1" min="6" max="6" width="9.88"/>
+    <col customWidth="1" min="6" max="6" width="11.25"/>
     <col customWidth="1" min="7" max="7" width="13.13"/>
     <col customWidth="1" min="8" max="8" width="27.25"/>
   </cols>
